--- a/Testcases_supplier/Invoices/Manual testcases/Invoices filter testcases.xlsx
+++ b/Testcases_supplier/Invoices/Manual testcases/Invoices filter testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testcases one group\Supplier hub\Invoices\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\Invoices\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E04379-46F4-4A12-82F6-7F14160BC6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F72E71-C6B9-4A55-B603-F97099C22967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,7 +396,91 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Once click the </t>
+      <t>Once click the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Export status"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, it should display the Exported and Not exported</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It should have like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Due date, Before today, Today, Within 7 days, This month and Next month</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Due date/Before today/Today/Within 7 days/This month/Next month and Apply </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> then return back to Invoice page </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click </t>
     </r>
     <r>
       <rPr>
@@ -418,90 +502,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>, it should display the list of Outlets, search box, Select all and Deselect all</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Once click the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Export status"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, it should display the Exported and Not exported</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It should have like </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Due date, Before today, Today, Within 7 days, This month and Next month</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Due date/Before today/Today/Within 7 days/This month/Next month and Apply </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Reset</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> then return back to Invoice page </t>
     </r>
   </si>
 </sst>
@@ -927,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,7 +1005,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>15</v>
@@ -1120,7 +1120,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>27</v>
@@ -1143,7 +1143,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>29</v>
@@ -1166,7 +1166,7 @@
         <v>30</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>31</v>
@@ -1189,7 +1189,7 @@
         <v>30</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>32</v>
